--- a/Testing/Testprotokoll_mobile.xlsx
+++ b/Testing/Testprotokoll_mobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\m152\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21860427-8B8F-4368-AE21-F4FB5C8FC979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48670C9-CD74-4819-AB91-F9340C392BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5AE6E00D-3E8E-4338-97F0-ECB6593C3EE5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Testprotokoll</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Chrome (101.0.4951.61)</t>
+  </si>
+  <si>
+    <t>Animationen werden angezeigt, bis auf Scroll-Animation</t>
+  </si>
+  <si>
+    <t>Design für Videos überarbeiten</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,9 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,7 +480,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,6 +488,7 @@
     <col min="1" max="1" width="98.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -547,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -573,7 +587,10 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
